--- a/02-intermediate/158-hands-on-04.xlsx
+++ b/02-intermediate/158-hands-on-04.xlsx
@@ -954,7 +954,7 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="59" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4113,7 +4113,7 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7258,7 +7258,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMCLEOD&amp;C&amp;G&amp;R&amp;P of &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F
